--- a/uploads/21-09-2021-8.xlsx
+++ b/uploads/21-09-2021-8.xlsx
@@ -425,14 +425,11 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -448,6 +445,9 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1100,13 +1100,13 @@
       <c r="AH12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AI12" s="18" t="s">
+      <c r="AI12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="18" t="s">
+      <c r="AJ12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AK12" s="18" t="s">
+      <c r="AK12" s="17" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1213,15 +1213,15 @@
       <c r="AH13" s="12">
         <v>30</v>
       </c>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="19"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="18"/>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="16">
+      <c r="A14" s="23">
         <v>5</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="29">
@@ -1304,13 +1304,13 @@
       <c r="AH14" s="25">
         <v>7.5</v>
       </c>
-      <c r="AI14" s="20" t="s">
+      <c r="AI14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AJ14" s="20" t="s">
+      <c r="AJ14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AK14" s="21">
+      <c r="AK14" s="20">
         <v>165.0</v>
       </c>
     </row>
@@ -1353,9 +1353,9 @@
       <c r="AF15" s="25"/>
       <c r="AG15" s="25"/>
       <c r="AH15" s="25"/>
-      <c r="AI15" s="20"/>
-      <c r="AJ15" s="20"/>
-      <c r="AK15" s="21"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="20"/>
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="24"/>
@@ -1396,9 +1396,9 @@
       <c r="AF16" s="25"/>
       <c r="AG16" s="25"/>
       <c r="AH16" s="25"/>
-      <c r="AI16" s="20"/>
-      <c r="AJ16" s="20"/>
-      <c r="AK16" s="21"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="20"/>
     </row>
     <row r="17" spans="1:37">
       <c r="A17" s="24"/>
@@ -1439,9 +1439,9 @@
       <c r="AF17" s="25"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="25"/>
-      <c r="AI17" s="20"/>
-      <c r="AJ17" s="20"/>
-      <c r="AK17" s="21"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="20"/>
     </row>
     <row r="18" spans="1:37">
       <c r="A18" s="24"/>
@@ -1482,9 +1482,9 @@
       <c r="AF18" s="25"/>
       <c r="AG18" s="25"/>
       <c r="AH18" s="25"/>
-      <c r="AI18" s="20"/>
-      <c r="AJ18" s="20"/>
-      <c r="AK18" s="21"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="20"/>
     </row>
     <row r="19" spans="1:37">
       <c r="A19" s="24"/>
@@ -1525,13 +1525,13 @@
       <c r="AF19" s="25"/>
       <c r="AG19" s="25"/>
       <c r="AH19" s="25"/>
-      <c r="AI19" s="20"/>
-      <c r="AJ19" s="20"/>
-      <c r="AK19" s="21"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="20"/>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="29">
         <v>2014</v>
       </c>
@@ -1568,15 +1568,15 @@
       <c r="AF20" s="26"/>
       <c r="AG20" s="26"/>
       <c r="AH20" s="26"/>
-      <c r="AI20" s="22"/>
-      <c r="AJ20" s="22"/>
-      <c r="AK20" s="23"/>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="22"/>
     </row>
     <row r="21" spans="1:37">
-      <c r="A21" s="16">
+      <c r="A21" s="23">
         <v>104</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="29">
@@ -1659,9 +1659,9 @@
       <c r="AH21" s="25">
         <v>7.5</v>
       </c>
-      <c r="AI21" s="20"/>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="21">
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="20">
         <v>165.0</v>
       </c>
     </row>
@@ -1704,9 +1704,9 @@
       <c r="AF22" s="25"/>
       <c r="AG22" s="25"/>
       <c r="AH22" s="25"/>
-      <c r="AI22" s="20"/>
-      <c r="AJ22" s="20"/>
-      <c r="AK22" s="21"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="20"/>
     </row>
     <row r="23" spans="1:37">
       <c r="A23" s="24"/>
@@ -1747,9 +1747,9 @@
       <c r="AF23" s="25"/>
       <c r="AG23" s="25"/>
       <c r="AH23" s="25"/>
-      <c r="AI23" s="20"/>
-      <c r="AJ23" s="20"/>
-      <c r="AK23" s="21"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="20"/>
     </row>
     <row r="24" spans="1:37">
       <c r="A24" s="24"/>
@@ -1790,9 +1790,9 @@
       <c r="AF24" s="25"/>
       <c r="AG24" s="25"/>
       <c r="AH24" s="25"/>
-      <c r="AI24" s="20"/>
-      <c r="AJ24" s="20"/>
-      <c r="AK24" s="21"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="20"/>
     </row>
     <row r="25" spans="1:37">
       <c r="A25" s="24"/>
@@ -1833,9 +1833,9 @@
       <c r="AF25" s="25"/>
       <c r="AG25" s="25"/>
       <c r="AH25" s="25"/>
-      <c r="AI25" s="20"/>
-      <c r="AJ25" s="20"/>
-      <c r="AK25" s="21"/>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="19"/>
+      <c r="AK25" s="20"/>
     </row>
     <row r="26" spans="1:37">
       <c r="A26" s="24"/>
@@ -1876,13 +1876,13 @@
       <c r="AF26" s="25"/>
       <c r="AG26" s="25"/>
       <c r="AH26" s="25"/>
-      <c r="AI26" s="20"/>
-      <c r="AJ26" s="20"/>
-      <c r="AK26" s="21"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="20"/>
     </row>
     <row r="27" spans="1:37">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="29">
         <v>2014</v>
       </c>
@@ -1919,15 +1919,15 @@
       <c r="AF27" s="26"/>
       <c r="AG27" s="26"/>
       <c r="AH27" s="26"/>
-      <c r="AI27" s="22"/>
-      <c r="AJ27" s="22"/>
-      <c r="AK27" s="23"/>
+      <c r="AI27" s="21"/>
+      <c r="AJ27" s="21"/>
+      <c r="AK27" s="22"/>
     </row>
     <row r="28" spans="1:37">
-      <c r="A28" s="16">
+      <c r="A28" s="23">
         <v>310</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="29">
@@ -2010,9 +2010,9 @@
       <c r="AH28" s="25">
         <v>7.5</v>
       </c>
-      <c r="AI28" s="20"/>
-      <c r="AJ28" s="20"/>
-      <c r="AK28" s="21">
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="20">
         <v>165.0</v>
       </c>
     </row>
@@ -2055,9 +2055,9 @@
       <c r="AF29" s="25"/>
       <c r="AG29" s="25"/>
       <c r="AH29" s="25"/>
-      <c r="AI29" s="20"/>
-      <c r="AJ29" s="20"/>
-      <c r="AK29" s="21"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="20"/>
     </row>
     <row r="30" spans="1:37">
       <c r="A30" s="24"/>
@@ -2098,9 +2098,9 @@
       <c r="AF30" s="25"/>
       <c r="AG30" s="25"/>
       <c r="AH30" s="25"/>
-      <c r="AI30" s="20"/>
-      <c r="AJ30" s="20"/>
-      <c r="AK30" s="21"/>
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="20"/>
     </row>
     <row r="31" spans="1:37">
       <c r="A31" s="24"/>
@@ -2141,9 +2141,9 @@
       <c r="AF31" s="25"/>
       <c r="AG31" s="25"/>
       <c r="AH31" s="25"/>
-      <c r="AI31" s="20"/>
-      <c r="AJ31" s="20"/>
-      <c r="AK31" s="21"/>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="19"/>
+      <c r="AK31" s="20"/>
     </row>
     <row r="32" spans="1:37">
       <c r="A32" s="24"/>
@@ -2184,9 +2184,9 @@
       <c r="AF32" s="25"/>
       <c r="AG32" s="25"/>
       <c r="AH32" s="25"/>
-      <c r="AI32" s="20"/>
-      <c r="AJ32" s="20"/>
-      <c r="AK32" s="21"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="20"/>
     </row>
     <row r="33" spans="1:37">
       <c r="A33" s="24"/>
@@ -2227,13 +2227,13 @@
       <c r="AF33" s="25"/>
       <c r="AG33" s="25"/>
       <c r="AH33" s="25"/>
-      <c r="AI33" s="20"/>
-      <c r="AJ33" s="20"/>
-      <c r="AK33" s="21"/>
+      <c r="AI33" s="19"/>
+      <c r="AJ33" s="19"/>
+      <c r="AK33" s="20"/>
     </row>
     <row r="34" spans="1:37">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="29">
         <v>2014</v>
       </c>
@@ -2270,15 +2270,15 @@
       <c r="AF34" s="26"/>
       <c r="AG34" s="26"/>
       <c r="AH34" s="26"/>
-      <c r="AI34" s="22"/>
-      <c r="AJ34" s="22"/>
-      <c r="AK34" s="23"/>
+      <c r="AI34" s="21"/>
+      <c r="AJ34" s="21"/>
+      <c r="AK34" s="22"/>
     </row>
     <row r="35" spans="1:37">
-      <c r="A35" s="16">
+      <c r="A35" s="23">
         <v>402</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="29">
@@ -2361,9 +2361,9 @@
       <c r="AH35" s="25">
         <v>7.5</v>
       </c>
-      <c r="AI35" s="20"/>
-      <c r="AJ35" s="20"/>
-      <c r="AK35" s="21">
+      <c r="AI35" s="19"/>
+      <c r="AJ35" s="19"/>
+      <c r="AK35" s="20">
         <v>165.0</v>
       </c>
     </row>
@@ -2406,9 +2406,9 @@
       <c r="AF36" s="25"/>
       <c r="AG36" s="25"/>
       <c r="AH36" s="25"/>
-      <c r="AI36" s="20"/>
-      <c r="AJ36" s="20"/>
-      <c r="AK36" s="21"/>
+      <c r="AI36" s="19"/>
+      <c r="AJ36" s="19"/>
+      <c r="AK36" s="20"/>
     </row>
     <row r="37" spans="1:37">
       <c r="A37" s="24"/>
@@ -2449,9 +2449,9 @@
       <c r="AF37" s="25"/>
       <c r="AG37" s="25"/>
       <c r="AH37" s="25"/>
-      <c r="AI37" s="20"/>
-      <c r="AJ37" s="20"/>
-      <c r="AK37" s="21"/>
+      <c r="AI37" s="19"/>
+      <c r="AJ37" s="19"/>
+      <c r="AK37" s="20"/>
     </row>
     <row r="38" spans="1:37">
       <c r="A38" s="24"/>
@@ -2492,9 +2492,9 @@
       <c r="AF38" s="25"/>
       <c r="AG38" s="25"/>
       <c r="AH38" s="25"/>
-      <c r="AI38" s="20"/>
-      <c r="AJ38" s="20"/>
-      <c r="AK38" s="21"/>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="19"/>
+      <c r="AK38" s="20"/>
     </row>
     <row r="39" spans="1:37">
       <c r="A39" s="24"/>
@@ -2535,9 +2535,9 @@
       <c r="AF39" s="25"/>
       <c r="AG39" s="25"/>
       <c r="AH39" s="25"/>
-      <c r="AI39" s="20"/>
-      <c r="AJ39" s="20"/>
-      <c r="AK39" s="21"/>
+      <c r="AI39" s="19"/>
+      <c r="AJ39" s="19"/>
+      <c r="AK39" s="20"/>
     </row>
     <row r="40" spans="1:37">
       <c r="A40" s="24"/>
@@ -2578,13 +2578,13 @@
       <c r="AF40" s="25"/>
       <c r="AG40" s="25"/>
       <c r="AH40" s="25"/>
-      <c r="AI40" s="20"/>
-      <c r="AJ40" s="20"/>
-      <c r="AK40" s="21"/>
+      <c r="AI40" s="19"/>
+      <c r="AJ40" s="19"/>
+      <c r="AK40" s="20"/>
     </row>
     <row r="41" spans="1:37">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="29">
         <v>2014</v>
       </c>
@@ -2621,15 +2621,15 @@
       <c r="AF41" s="26"/>
       <c r="AG41" s="26"/>
       <c r="AH41" s="26"/>
-      <c r="AI41" s="22"/>
-      <c r="AJ41" s="22"/>
-      <c r="AK41" s="23"/>
+      <c r="AI41" s="21"/>
+      <c r="AJ41" s="21"/>
+      <c r="AK41" s="22"/>
     </row>
     <row r="42" spans="1:37">
-      <c r="A42" s="16">
+      <c r="A42" s="23">
         <v>463</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="29">
@@ -2712,9 +2712,9 @@
       <c r="AH42" s="25">
         <v>7.5</v>
       </c>
-      <c r="AI42" s="20"/>
-      <c r="AJ42" s="20"/>
-      <c r="AK42" s="21">
+      <c r="AI42" s="19"/>
+      <c r="AJ42" s="19"/>
+      <c r="AK42" s="20">
         <v>165.0</v>
       </c>
     </row>
@@ -2757,9 +2757,9 @@
       <c r="AF43" s="25"/>
       <c r="AG43" s="25"/>
       <c r="AH43" s="25"/>
-      <c r="AI43" s="20"/>
-      <c r="AJ43" s="20"/>
-      <c r="AK43" s="21"/>
+      <c r="AI43" s="19"/>
+      <c r="AJ43" s="19"/>
+      <c r="AK43" s="20"/>
     </row>
     <row r="44" spans="1:37">
       <c r="A44" s="24"/>
@@ -2800,9 +2800,9 @@
       <c r="AF44" s="25"/>
       <c r="AG44" s="25"/>
       <c r="AH44" s="25"/>
-      <c r="AI44" s="20"/>
-      <c r="AJ44" s="20"/>
-      <c r="AK44" s="21"/>
+      <c r="AI44" s="19"/>
+      <c r="AJ44" s="19"/>
+      <c r="AK44" s="20"/>
     </row>
     <row r="45" spans="1:37">
       <c r="A45" s="24"/>
@@ -2843,9 +2843,9 @@
       <c r="AF45" s="25"/>
       <c r="AG45" s="25"/>
       <c r="AH45" s="25"/>
-      <c r="AI45" s="20"/>
-      <c r="AJ45" s="20"/>
-      <c r="AK45" s="21"/>
+      <c r="AI45" s="19"/>
+      <c r="AJ45" s="19"/>
+      <c r="AK45" s="20"/>
     </row>
     <row r="46" spans="1:37">
       <c r="A46" s="24"/>
@@ -2886,9 +2886,9 @@
       <c r="AF46" s="25"/>
       <c r="AG46" s="25"/>
       <c r="AH46" s="25"/>
-      <c r="AI46" s="20"/>
-      <c r="AJ46" s="20"/>
-      <c r="AK46" s="21"/>
+      <c r="AI46" s="19"/>
+      <c r="AJ46" s="19"/>
+      <c r="AK46" s="20"/>
     </row>
     <row r="47" spans="1:37">
       <c r="A47" s="24"/>
@@ -2929,13 +2929,13 @@
       <c r="AF47" s="25"/>
       <c r="AG47" s="25"/>
       <c r="AH47" s="25"/>
-      <c r="AI47" s="20"/>
-      <c r="AJ47" s="20"/>
-      <c r="AK47" s="21"/>
+      <c r="AI47" s="19"/>
+      <c r="AJ47" s="19"/>
+      <c r="AK47" s="20"/>
     </row>
     <row r="48" spans="1:37">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="29">
         <v>2014</v>
       </c>
@@ -2972,15 +2972,15 @@
       <c r="AF48" s="26"/>
       <c r="AG48" s="26"/>
       <c r="AH48" s="26"/>
-      <c r="AI48" s="22"/>
-      <c r="AJ48" s="22"/>
-      <c r="AK48" s="23"/>
+      <c r="AI48" s="21"/>
+      <c r="AJ48" s="21"/>
+      <c r="AK48" s="22"/>
     </row>
     <row r="49" spans="1:37">
-      <c r="A49" s="16">
+      <c r="A49" s="23">
         <v>506</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="29">
@@ -3063,9 +3063,9 @@
       <c r="AH49" s="25">
         <v>7.5</v>
       </c>
-      <c r="AI49" s="20"/>
-      <c r="AJ49" s="20"/>
-      <c r="AK49" s="21">
+      <c r="AI49" s="19"/>
+      <c r="AJ49" s="19"/>
+      <c r="AK49" s="20">
         <v>165.0</v>
       </c>
     </row>
@@ -3108,9 +3108,9 @@
       <c r="AF50" s="25"/>
       <c r="AG50" s="25"/>
       <c r="AH50" s="25"/>
-      <c r="AI50" s="20"/>
-      <c r="AJ50" s="20"/>
-      <c r="AK50" s="21"/>
+      <c r="AI50" s="19"/>
+      <c r="AJ50" s="19"/>
+      <c r="AK50" s="20"/>
     </row>
     <row r="51" spans="1:37">
       <c r="A51" s="24"/>
@@ -3151,9 +3151,9 @@
       <c r="AF51" s="25"/>
       <c r="AG51" s="25"/>
       <c r="AH51" s="25"/>
-      <c r="AI51" s="20"/>
-      <c r="AJ51" s="20"/>
-      <c r="AK51" s="21"/>
+      <c r="AI51" s="19"/>
+      <c r="AJ51" s="19"/>
+      <c r="AK51" s="20"/>
     </row>
     <row r="52" spans="1:37">
       <c r="A52" s="24"/>
@@ -3194,9 +3194,9 @@
       <c r="AF52" s="25"/>
       <c r="AG52" s="25"/>
       <c r="AH52" s="25"/>
-      <c r="AI52" s="20"/>
-      <c r="AJ52" s="20"/>
-      <c r="AK52" s="21"/>
+      <c r="AI52" s="19"/>
+      <c r="AJ52" s="19"/>
+      <c r="AK52" s="20"/>
     </row>
     <row r="53" spans="1:37">
       <c r="A53" s="24"/>
@@ -3237,9 +3237,9 @@
       <c r="AF53" s="25"/>
       <c r="AG53" s="25"/>
       <c r="AH53" s="25"/>
-      <c r="AI53" s="20"/>
-      <c r="AJ53" s="20"/>
-      <c r="AK53" s="21"/>
+      <c r="AI53" s="19"/>
+      <c r="AJ53" s="19"/>
+      <c r="AK53" s="20"/>
     </row>
     <row r="54" spans="1:37">
       <c r="A54" s="24"/>
@@ -3280,13 +3280,13 @@
       <c r="AF54" s="25"/>
       <c r="AG54" s="25"/>
       <c r="AH54" s="25"/>
-      <c r="AI54" s="20"/>
-      <c r="AJ54" s="20"/>
-      <c r="AK54" s="21"/>
+      <c r="AI54" s="19"/>
+      <c r="AJ54" s="19"/>
+      <c r="AK54" s="20"/>
     </row>
     <row r="55" spans="1:37">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="29">
         <v>2014</v>
       </c>
@@ -3323,15 +3323,15 @@
       <c r="AF55" s="26"/>
       <c r="AG55" s="26"/>
       <c r="AH55" s="26"/>
-      <c r="AI55" s="22"/>
-      <c r="AJ55" s="22"/>
-      <c r="AK55" s="23"/>
+      <c r="AI55" s="21"/>
+      <c r="AJ55" s="21"/>
+      <c r="AK55" s="22"/>
     </row>
     <row r="56" spans="1:37">
-      <c r="A56" s="16">
+      <c r="A56" s="23">
         <v>532</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C56" s="29">
@@ -3414,9 +3414,9 @@
       <c r="AH56" s="25">
         <v>7.5</v>
       </c>
-      <c r="AI56" s="20"/>
-      <c r="AJ56" s="20"/>
-      <c r="AK56" s="21">
+      <c r="AI56" s="19"/>
+      <c r="AJ56" s="19"/>
+      <c r="AK56" s="20">
         <v>165.0</v>
       </c>
     </row>
@@ -3459,9 +3459,9 @@
       <c r="AF57" s="25"/>
       <c r="AG57" s="25"/>
       <c r="AH57" s="25"/>
-      <c r="AI57" s="20"/>
-      <c r="AJ57" s="20"/>
-      <c r="AK57" s="21"/>
+      <c r="AI57" s="19"/>
+      <c r="AJ57" s="19"/>
+      <c r="AK57" s="20"/>
     </row>
     <row r="58" spans="1:37">
       <c r="A58" s="24"/>
@@ -3502,9 +3502,9 @@
       <c r="AF58" s="25"/>
       <c r="AG58" s="25"/>
       <c r="AH58" s="25"/>
-      <c r="AI58" s="20"/>
-      <c r="AJ58" s="20"/>
-      <c r="AK58" s="21"/>
+      <c r="AI58" s="19"/>
+      <c r="AJ58" s="19"/>
+      <c r="AK58" s="20"/>
     </row>
     <row r="59" spans="1:37">
       <c r="A59" s="24"/>
@@ -3545,9 +3545,9 @@
       <c r="AF59" s="25"/>
       <c r="AG59" s="25"/>
       <c r="AH59" s="25"/>
-      <c r="AI59" s="20"/>
-      <c r="AJ59" s="20"/>
-      <c r="AK59" s="21"/>
+      <c r="AI59" s="19"/>
+      <c r="AJ59" s="19"/>
+      <c r="AK59" s="20"/>
     </row>
     <row r="60" spans="1:37">
       <c r="A60" s="24"/>
@@ -3588,9 +3588,9 @@
       <c r="AF60" s="25"/>
       <c r="AG60" s="25"/>
       <c r="AH60" s="25"/>
-      <c r="AI60" s="20"/>
-      <c r="AJ60" s="20"/>
-      <c r="AK60" s="21"/>
+      <c r="AI60" s="19"/>
+      <c r="AJ60" s="19"/>
+      <c r="AK60" s="20"/>
     </row>
     <row r="61" spans="1:37">
       <c r="A61" s="24"/>
@@ -3631,13 +3631,13 @@
       <c r="AF61" s="25"/>
       <c r="AG61" s="25"/>
       <c r="AH61" s="25"/>
-      <c r="AI61" s="20"/>
-      <c r="AJ61" s="20"/>
-      <c r="AK61" s="21"/>
+      <c r="AI61" s="19"/>
+      <c r="AJ61" s="19"/>
+      <c r="AK61" s="20"/>
     </row>
     <row r="62" spans="1:37">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="29">
         <v>2014</v>
       </c>
@@ -3674,15 +3674,15 @@
       <c r="AF62" s="26"/>
       <c r="AG62" s="26"/>
       <c r="AH62" s="26"/>
-      <c r="AI62" s="22"/>
-      <c r="AJ62" s="22"/>
-      <c r="AK62" s="23"/>
+      <c r="AI62" s="21"/>
+      <c r="AJ62" s="21"/>
+      <c r="AK62" s="22"/>
     </row>
     <row r="63" spans="1:37">
-      <c r="A63" s="16">
+      <c r="A63" s="23">
         <v>571</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="23" t="s">
         <v>49</v>
       </c>
       <c r="C63" s="29">
@@ -3765,9 +3765,9 @@
       <c r="AH63" s="25">
         <v>7.5</v>
       </c>
-      <c r="AI63" s="20"/>
-      <c r="AJ63" s="20"/>
-      <c r="AK63" s="21">
+      <c r="AI63" s="19"/>
+      <c r="AJ63" s="19"/>
+      <c r="AK63" s="20">
         <v>165.0</v>
       </c>
     </row>
@@ -3810,9 +3810,9 @@
       <c r="AF64" s="25"/>
       <c r="AG64" s="25"/>
       <c r="AH64" s="25"/>
-      <c r="AI64" s="20"/>
-      <c r="AJ64" s="20"/>
-      <c r="AK64" s="21"/>
+      <c r="AI64" s="19"/>
+      <c r="AJ64" s="19"/>
+      <c r="AK64" s="20"/>
     </row>
     <row r="65" spans="1:37">
       <c r="A65" s="24"/>
@@ -3853,9 +3853,9 @@
       <c r="AF65" s="25"/>
       <c r="AG65" s="25"/>
       <c r="AH65" s="25"/>
-      <c r="AI65" s="20"/>
-      <c r="AJ65" s="20"/>
-      <c r="AK65" s="21"/>
+      <c r="AI65" s="19"/>
+      <c r="AJ65" s="19"/>
+      <c r="AK65" s="20"/>
     </row>
     <row r="66" spans="1:37">
       <c r="A66" s="24"/>
@@ -3896,9 +3896,9 @@
       <c r="AF66" s="25"/>
       <c r="AG66" s="25"/>
       <c r="AH66" s="25"/>
-      <c r="AI66" s="20"/>
-      <c r="AJ66" s="20"/>
-      <c r="AK66" s="21"/>
+      <c r="AI66" s="19"/>
+      <c r="AJ66" s="19"/>
+      <c r="AK66" s="20"/>
     </row>
     <row r="67" spans="1:37">
       <c r="A67" s="24"/>
@@ -3939,9 +3939,9 @@
       <c r="AF67" s="25"/>
       <c r="AG67" s="25"/>
       <c r="AH67" s="25"/>
-      <c r="AI67" s="20"/>
-      <c r="AJ67" s="20"/>
-      <c r="AK67" s="21"/>
+      <c r="AI67" s="19"/>
+      <c r="AJ67" s="19"/>
+      <c r="AK67" s="20"/>
     </row>
     <row r="68" spans="1:37">
       <c r="A68" s="24"/>
@@ -3982,13 +3982,13 @@
       <c r="AF68" s="25"/>
       <c r="AG68" s="25"/>
       <c r="AH68" s="25"/>
-      <c r="AI68" s="20"/>
-      <c r="AJ68" s="20"/>
-      <c r="AK68" s="21"/>
+      <c r="AI68" s="19"/>
+      <c r="AJ68" s="19"/>
+      <c r="AK68" s="20"/>
     </row>
     <row r="69" spans="1:37">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="29">
         <v>2014</v>
       </c>
@@ -4025,15 +4025,15 @@
       <c r="AF69" s="26"/>
       <c r="AG69" s="26"/>
       <c r="AH69" s="26"/>
-      <c r="AI69" s="22"/>
-      <c r="AJ69" s="22"/>
-      <c r="AK69" s="23"/>
+      <c r="AI69" s="21"/>
+      <c r="AJ69" s="21"/>
+      <c r="AK69" s="22"/>
     </row>
     <row r="70" spans="1:37">
-      <c r="A70" s="16">
+      <c r="A70" s="23">
         <v>574</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="23" t="s">
         <v>50</v>
       </c>
       <c r="C70" s="29">
@@ -4116,9 +4116,9 @@
       <c r="AH70" s="25">
         <v>7.5</v>
       </c>
-      <c r="AI70" s="20"/>
-      <c r="AJ70" s="20"/>
-      <c r="AK70" s="21">
+      <c r="AI70" s="19"/>
+      <c r="AJ70" s="19"/>
+      <c r="AK70" s="20">
         <v>165.0</v>
       </c>
     </row>
@@ -4161,9 +4161,9 @@
       <c r="AF71" s="25"/>
       <c r="AG71" s="25"/>
       <c r="AH71" s="25"/>
-      <c r="AI71" s="20"/>
-      <c r="AJ71" s="20"/>
-      <c r="AK71" s="21"/>
+      <c r="AI71" s="19"/>
+      <c r="AJ71" s="19"/>
+      <c r="AK71" s="20"/>
     </row>
     <row r="72" spans="1:37">
       <c r="A72" s="24"/>
@@ -4204,9 +4204,9 @@
       <c r="AF72" s="25"/>
       <c r="AG72" s="25"/>
       <c r="AH72" s="25"/>
-      <c r="AI72" s="20"/>
-      <c r="AJ72" s="20"/>
-      <c r="AK72" s="21"/>
+      <c r="AI72" s="19"/>
+      <c r="AJ72" s="19"/>
+      <c r="AK72" s="20"/>
     </row>
     <row r="73" spans="1:37">
       <c r="A73" s="24"/>
@@ -4247,9 +4247,9 @@
       <c r="AF73" s="25"/>
       <c r="AG73" s="25"/>
       <c r="AH73" s="25"/>
-      <c r="AI73" s="20"/>
-      <c r="AJ73" s="20"/>
-      <c r="AK73" s="21"/>
+      <c r="AI73" s="19"/>
+      <c r="AJ73" s="19"/>
+      <c r="AK73" s="20"/>
     </row>
     <row r="74" spans="1:37">
       <c r="A74" s="24"/>
@@ -4290,9 +4290,9 @@
       <c r="AF74" s="25"/>
       <c r="AG74" s="25"/>
       <c r="AH74" s="25"/>
-      <c r="AI74" s="20"/>
-      <c r="AJ74" s="20"/>
-      <c r="AK74" s="21"/>
+      <c r="AI74" s="19"/>
+      <c r="AJ74" s="19"/>
+      <c r="AK74" s="20"/>
     </row>
     <row r="75" spans="1:37">
       <c r="A75" s="24"/>
@@ -4333,13 +4333,13 @@
       <c r="AF75" s="25"/>
       <c r="AG75" s="25"/>
       <c r="AH75" s="25"/>
-      <c r="AI75" s="20"/>
-      <c r="AJ75" s="20"/>
-      <c r="AK75" s="21"/>
+      <c r="AI75" s="19"/>
+      <c r="AJ75" s="19"/>
+      <c r="AK75" s="20"/>
     </row>
     <row r="76" spans="1:37">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="29">
         <v>2014</v>
       </c>
@@ -4376,15 +4376,15 @@
       <c r="AF76" s="26"/>
       <c r="AG76" s="26"/>
       <c r="AH76" s="26"/>
-      <c r="AI76" s="22"/>
-      <c r="AJ76" s="22"/>
-      <c r="AK76" s="23"/>
+      <c r="AI76" s="21"/>
+      <c r="AJ76" s="21"/>
+      <c r="AK76" s="22"/>
     </row>
     <row r="77" spans="1:37">
-      <c r="A77" s="16">
+      <c r="A77" s="23">
         <v>579</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C77" s="29">
@@ -4467,9 +4467,9 @@
       <c r="AH77" s="25">
         <v>7.5</v>
       </c>
-      <c r="AI77" s="20"/>
-      <c r="AJ77" s="20"/>
-      <c r="AK77" s="21">
+      <c r="AI77" s="19"/>
+      <c r="AJ77" s="19"/>
+      <c r="AK77" s="20">
         <v>165.0</v>
       </c>
     </row>
@@ -4512,9 +4512,9 @@
       <c r="AF78" s="25"/>
       <c r="AG78" s="25"/>
       <c r="AH78" s="25"/>
-      <c r="AI78" s="20"/>
-      <c r="AJ78" s="20"/>
-      <c r="AK78" s="21"/>
+      <c r="AI78" s="19"/>
+      <c r="AJ78" s="19"/>
+      <c r="AK78" s="20"/>
     </row>
     <row r="79" spans="1:37">
       <c r="A79" s="24"/>
@@ -4555,9 +4555,9 @@
       <c r="AF79" s="25"/>
       <c r="AG79" s="25"/>
       <c r="AH79" s="25"/>
-      <c r="AI79" s="20"/>
-      <c r="AJ79" s="20"/>
-      <c r="AK79" s="21"/>
+      <c r="AI79" s="19"/>
+      <c r="AJ79" s="19"/>
+      <c r="AK79" s="20"/>
     </row>
     <row r="80" spans="1:37">
       <c r="A80" s="24"/>
@@ -4598,9 +4598,9 @@
       <c r="AF80" s="25"/>
       <c r="AG80" s="25"/>
       <c r="AH80" s="25"/>
-      <c r="AI80" s="20"/>
-      <c r="AJ80" s="20"/>
-      <c r="AK80" s="21"/>
+      <c r="AI80" s="19"/>
+      <c r="AJ80" s="19"/>
+      <c r="AK80" s="20"/>
     </row>
     <row r="81" spans="1:37">
       <c r="A81" s="24"/>
@@ -4641,9 +4641,9 @@
       <c r="AF81" s="25"/>
       <c r="AG81" s="25"/>
       <c r="AH81" s="25"/>
-      <c r="AI81" s="20"/>
-      <c r="AJ81" s="20"/>
-      <c r="AK81" s="21"/>
+      <c r="AI81" s="19"/>
+      <c r="AJ81" s="19"/>
+      <c r="AK81" s="20"/>
     </row>
     <row r="82" spans="1:37">
       <c r="A82" s="24"/>
@@ -4684,13 +4684,13 @@
       <c r="AF82" s="25"/>
       <c r="AG82" s="25"/>
       <c r="AH82" s="25"/>
-      <c r="AI82" s="20"/>
-      <c r="AJ82" s="20"/>
-      <c r="AK82" s="21"/>
+      <c r="AI82" s="19"/>
+      <c r="AJ82" s="19"/>
+      <c r="AK82" s="20"/>
     </row>
     <row r="83" spans="1:37">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
       <c r="C83" s="29">
         <v>2014</v>
       </c>
@@ -4727,15 +4727,15 @@
       <c r="AF83" s="26"/>
       <c r="AG83" s="26"/>
       <c r="AH83" s="26"/>
-      <c r="AI83" s="22"/>
-      <c r="AJ83" s="22"/>
-      <c r="AK83" s="23"/>
+      <c r="AI83" s="21"/>
+      <c r="AJ83" s="21"/>
+      <c r="AK83" s="22"/>
     </row>
     <row r="84" spans="1:37">
-      <c r="A84" s="16">
+      <c r="A84" s="23">
         <v>611</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C84" s="29">
@@ -4818,9 +4818,9 @@
       <c r="AH84" s="25">
         <v>7.5</v>
       </c>
-      <c r="AI84" s="20"/>
-      <c r="AJ84" s="20"/>
-      <c r="AK84" s="21">
+      <c r="AI84" s="19"/>
+      <c r="AJ84" s="19"/>
+      <c r="AK84" s="20">
         <v>165.0</v>
       </c>
     </row>
@@ -4863,9 +4863,9 @@
       <c r="AF85" s="25"/>
       <c r="AG85" s="25"/>
       <c r="AH85" s="25"/>
-      <c r="AI85" s="20"/>
-      <c r="AJ85" s="20"/>
-      <c r="AK85" s="21"/>
+      <c r="AI85" s="19"/>
+      <c r="AJ85" s="19"/>
+      <c r="AK85" s="20"/>
     </row>
     <row r="86" spans="1:37">
       <c r="A86" s="24"/>
@@ -4906,9 +4906,9 @@
       <c r="AF86" s="25"/>
       <c r="AG86" s="25"/>
       <c r="AH86" s="25"/>
-      <c r="AI86" s="20"/>
-      <c r="AJ86" s="20"/>
-      <c r="AK86" s="21"/>
+      <c r="AI86" s="19"/>
+      <c r="AJ86" s="19"/>
+      <c r="AK86" s="20"/>
     </row>
     <row r="87" spans="1:37">
       <c r="A87" s="24"/>
@@ -4949,9 +4949,9 @@
       <c r="AF87" s="25"/>
       <c r="AG87" s="25"/>
       <c r="AH87" s="25"/>
-      <c r="AI87" s="20"/>
-      <c r="AJ87" s="20"/>
-      <c r="AK87" s="21"/>
+      <c r="AI87" s="19"/>
+      <c r="AJ87" s="19"/>
+      <c r="AK87" s="20"/>
     </row>
     <row r="88" spans="1:37">
       <c r="A88" s="24"/>
@@ -4992,9 +4992,9 @@
       <c r="AF88" s="25"/>
       <c r="AG88" s="25"/>
       <c r="AH88" s="25"/>
-      <c r="AI88" s="20"/>
-      <c r="AJ88" s="20"/>
-      <c r="AK88" s="21"/>
+      <c r="AI88" s="19"/>
+      <c r="AJ88" s="19"/>
+      <c r="AK88" s="20"/>
     </row>
     <row r="89" spans="1:37">
       <c r="A89" s="24"/>
@@ -5035,13 +5035,13 @@
       <c r="AF89" s="25"/>
       <c r="AG89" s="25"/>
       <c r="AH89" s="25"/>
-      <c r="AI89" s="20"/>
-      <c r="AJ89" s="20"/>
-      <c r="AK89" s="21"/>
+      <c r="AI89" s="19"/>
+      <c r="AJ89" s="19"/>
+      <c r="AK89" s="20"/>
     </row>
     <row r="90" spans="1:37">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
       <c r="C90" s="29">
         <v>2014</v>
       </c>
@@ -5078,15 +5078,15 @@
       <c r="AF90" s="26"/>
       <c r="AG90" s="26"/>
       <c r="AH90" s="26"/>
-      <c r="AI90" s="22"/>
-      <c r="AJ90" s="22"/>
-      <c r="AK90" s="23"/>
+      <c r="AI90" s="21"/>
+      <c r="AJ90" s="21"/>
+      <c r="AK90" s="22"/>
     </row>
     <row r="91" spans="1:37">
-      <c r="A91" s="16">
+      <c r="A91" s="23">
         <v>634</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="23" t="s">
         <v>53</v>
       </c>
       <c r="C91" s="29">
@@ -5169,9 +5169,9 @@
       <c r="AH91" s="25">
         <v>7.5</v>
       </c>
-      <c r="AI91" s="20"/>
-      <c r="AJ91" s="20"/>
-      <c r="AK91" s="21">
+      <c r="AI91" s="19"/>
+      <c r="AJ91" s="19"/>
+      <c r="AK91" s="20">
         <v>165.0</v>
       </c>
     </row>
@@ -5214,9 +5214,9 @@
       <c r="AF92" s="25"/>
       <c r="AG92" s="25"/>
       <c r="AH92" s="25"/>
-      <c r="AI92" s="20"/>
-      <c r="AJ92" s="20"/>
-      <c r="AK92" s="21"/>
+      <c r="AI92" s="19"/>
+      <c r="AJ92" s="19"/>
+      <c r="AK92" s="20"/>
     </row>
     <row r="93" spans="1:37">
       <c r="A93" s="24"/>
@@ -5257,9 +5257,9 @@
       <c r="AF93" s="25"/>
       <c r="AG93" s="25"/>
       <c r="AH93" s="25"/>
-      <c r="AI93" s="20"/>
-      <c r="AJ93" s="20"/>
-      <c r="AK93" s="21"/>
+      <c r="AI93" s="19"/>
+      <c r="AJ93" s="19"/>
+      <c r="AK93" s="20"/>
     </row>
     <row r="94" spans="1:37">
       <c r="A94" s="24"/>
@@ -5300,9 +5300,9 @@
       <c r="AF94" s="25"/>
       <c r="AG94" s="25"/>
       <c r="AH94" s="25"/>
-      <c r="AI94" s="20"/>
-      <c r="AJ94" s="20"/>
-      <c r="AK94" s="21"/>
+      <c r="AI94" s="19"/>
+      <c r="AJ94" s="19"/>
+      <c r="AK94" s="20"/>
     </row>
     <row r="95" spans="1:37">
       <c r="A95" s="24"/>
@@ -5343,9 +5343,9 @@
       <c r="AF95" s="25"/>
       <c r="AG95" s="25"/>
       <c r="AH95" s="25"/>
-      <c r="AI95" s="20"/>
-      <c r="AJ95" s="20"/>
-      <c r="AK95" s="21"/>
+      <c r="AI95" s="19"/>
+      <c r="AJ95" s="19"/>
+      <c r="AK95" s="20"/>
     </row>
     <row r="96" spans="1:37">
       <c r="A96" s="24"/>
@@ -5386,13 +5386,13 @@
       <c r="AF96" s="25"/>
       <c r="AG96" s="25"/>
       <c r="AH96" s="25"/>
-      <c r="AI96" s="20"/>
-      <c r="AJ96" s="20"/>
-      <c r="AK96" s="21"/>
+      <c r="AI96" s="19"/>
+      <c r="AJ96" s="19"/>
+      <c r="AK96" s="20"/>
     </row>
     <row r="97" spans="1:37">
-      <c r="A97" s="17"/>
-      <c r="B97" s="17"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
       <c r="C97" s="29">
         <v>2014</v>
       </c>
@@ -5429,15 +5429,15 @@
       <c r="AF97" s="26"/>
       <c r="AG97" s="26"/>
       <c r="AH97" s="26"/>
-      <c r="AI97" s="22"/>
-      <c r="AJ97" s="22"/>
-      <c r="AK97" s="23"/>
+      <c r="AI97" s="21"/>
+      <c r="AJ97" s="21"/>
+      <c r="AK97" s="22"/>
     </row>
     <row r="98" spans="1:37">
-      <c r="A98" s="16">
+      <c r="A98" s="23">
         <v>638</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="23" t="s">
         <v>54</v>
       </c>
       <c r="C98" s="29">
@@ -5520,9 +5520,9 @@
       <c r="AH98" s="25">
         <v>7.5</v>
       </c>
-      <c r="AI98" s="20"/>
-      <c r="AJ98" s="20"/>
-      <c r="AK98" s="21">
+      <c r="AI98" s="19"/>
+      <c r="AJ98" s="19"/>
+      <c r="AK98" s="20">
         <v>165.0</v>
       </c>
     </row>
@@ -5565,9 +5565,9 @@
       <c r="AF99" s="25"/>
       <c r="AG99" s="25"/>
       <c r="AH99" s="25"/>
-      <c r="AI99" s="20"/>
-      <c r="AJ99" s="20"/>
-      <c r="AK99" s="21"/>
+      <c r="AI99" s="19"/>
+      <c r="AJ99" s="19"/>
+      <c r="AK99" s="20"/>
     </row>
     <row r="100" spans="1:37">
       <c r="A100" s="24"/>
@@ -5608,9 +5608,9 @@
       <c r="AF100" s="25"/>
       <c r="AG100" s="25"/>
       <c r="AH100" s="25"/>
-      <c r="AI100" s="20"/>
-      <c r="AJ100" s="20"/>
-      <c r="AK100" s="21"/>
+      <c r="AI100" s="19"/>
+      <c r="AJ100" s="19"/>
+      <c r="AK100" s="20"/>
     </row>
     <row r="101" spans="1:37">
       <c r="A101" s="24"/>
@@ -5651,9 +5651,9 @@
       <c r="AF101" s="25"/>
       <c r="AG101" s="25"/>
       <c r="AH101" s="25"/>
-      <c r="AI101" s="20"/>
-      <c r="AJ101" s="20"/>
-      <c r="AK101" s="21"/>
+      <c r="AI101" s="19"/>
+      <c r="AJ101" s="19"/>
+      <c r="AK101" s="20"/>
     </row>
     <row r="102" spans="1:37">
       <c r="A102" s="24"/>
@@ -5694,9 +5694,9 @@
       <c r="AF102" s="25"/>
       <c r="AG102" s="25"/>
       <c r="AH102" s="25"/>
-      <c r="AI102" s="20"/>
-      <c r="AJ102" s="20"/>
-      <c r="AK102" s="21"/>
+      <c r="AI102" s="19"/>
+      <c r="AJ102" s="19"/>
+      <c r="AK102" s="20"/>
     </row>
     <row r="103" spans="1:37">
       <c r="A103" s="24"/>
@@ -5737,13 +5737,13 @@
       <c r="AF103" s="25"/>
       <c r="AG103" s="25"/>
       <c r="AH103" s="25"/>
-      <c r="AI103" s="20"/>
-      <c r="AJ103" s="20"/>
-      <c r="AK103" s="21"/>
+      <c r="AI103" s="19"/>
+      <c r="AJ103" s="19"/>
+      <c r="AK103" s="20"/>
     </row>
     <row r="104" spans="1:37">
-      <c r="A104" s="17"/>
-      <c r="B104" s="17"/>
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
       <c r="C104" s="29">
         <v>2014</v>
       </c>
@@ -5780,9 +5780,9 @@
       <c r="AF104" s="26"/>
       <c r="AG104" s="26"/>
       <c r="AH104" s="26"/>
-      <c r="AI104" s="22"/>
-      <c r="AJ104" s="22"/>
-      <c r="AK104" s="23"/>
+      <c r="AI104" s="21"/>
+      <c r="AJ104" s="21"/>
+      <c r="AK104" s="22"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
